--- a/DSP/游戏内测量数据整理.xlsx
+++ b/DSP/游戏内测量数据整理.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新文件\桌面\自创攻略\戴森球计划\戴森球计划数值计算统计\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\game\TTenYXDoc仓库\TTenYXDoc\DSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9F1A7F-F878-4F9F-9727-369AAAA8A5E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A7B26F-D3EC-4757-AB13-232F76B6410C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1965" yWindow="2100" windowWidth="22155" windowHeight="13500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="星球建造规格" sheetId="4" r:id="rId1"/>
@@ -1549,10 +1549,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>背包制造耗时</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>铁块</t>
   </si>
   <si>
@@ -1764,6 +1760,10 @@
   </si>
   <si>
     <t>510kw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包制造耗时（单位：秒）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2191,7 +2191,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2677,7 +2677,7 @@
   <dimension ref="A1:U46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3725,7 +3725,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3953,8 +3953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q129"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6007,7 +6007,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79713CDE-AB75-4157-850A-4F076621FB23}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -6018,7 +6018,7 @@
         <v>314</v>
       </c>
       <c r="B1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6026,7 +6026,7 @@
         <v>315</v>
       </c>
       <c r="B2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6034,7 +6034,7 @@
         <v>316</v>
       </c>
       <c r="B3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -6042,10 +6042,10 @@
         <v>317</v>
       </c>
       <c r="B4" t="s">
+        <v>455</v>
+      </c>
+      <c r="C4" t="s">
         <v>456</v>
-      </c>
-      <c r="C4" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -6074,7 +6074,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6441,11 +6441,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="D1:F1"/>
@@ -6453,6 +6448,11 @@
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:E14"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6463,7 +6463,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22B44D6F-EF0E-4AB0-B72F-FBC8D01837E8}">
   <dimension ref="A1:W66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -7331,12 +7331,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B538E996-4E90-4758-9281-6A1FF89B35DC}">
   <dimension ref="A1:N86"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="J81" sqref="J81"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="10" max="10" width="12.375" customWidth="1"/>
     <col min="11" max="11" width="21.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7346,7 +7347,7 @@
       </c>
       <c r="B1" s="14"/>
       <c r="J1" t="s">
-        <v>388</v>
+        <v>458</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -7358,7 +7359,7 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -7370,7 +7371,7 @@
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -7382,7 +7383,7 @@
         <v>2</v>
       </c>
       <c r="K4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -7394,7 +7395,7 @@
         <v>2</v>
       </c>
       <c r="K5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -7406,7 +7407,7 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -7418,7 +7419,7 @@
         <v>2</v>
       </c>
       <c r="K7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -7430,7 +7431,7 @@
         <v>2</v>
       </c>
       <c r="K8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -7438,7 +7439,7 @@
         <v>2.5</v>
       </c>
       <c r="K9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -7446,7 +7447,7 @@
         <v>6</v>
       </c>
       <c r="K10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -7454,7 +7455,7 @@
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -7462,7 +7463,7 @@
         <v>2</v>
       </c>
       <c r="K12" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -7470,7 +7471,7 @@
         <v>1.5</v>
       </c>
       <c r="K13" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -7478,7 +7479,7 @@
         <v>2</v>
       </c>
       <c r="K14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -7486,7 +7487,7 @@
         <v>2</v>
       </c>
       <c r="K15" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -7494,7 +7495,7 @@
         <v>4</v>
       </c>
       <c r="K16" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="17" spans="10:14" x14ac:dyDescent="0.2">
@@ -7502,7 +7503,7 @@
         <v>20</v>
       </c>
       <c r="K17" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="19" spans="10:14" x14ac:dyDescent="0.2">
@@ -7510,7 +7511,7 @@
         <v>0.75</v>
       </c>
       <c r="N19" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="20" spans="10:14" x14ac:dyDescent="0.2">
@@ -7518,7 +7519,7 @@
         <v>0.75</v>
       </c>
       <c r="N20" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="21" spans="10:14" x14ac:dyDescent="0.2">
@@ -7526,7 +7527,7 @@
         <v>2</v>
       </c>
       <c r="N21" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="22" spans="10:14" x14ac:dyDescent="0.2">
@@ -7534,7 +7535,7 @@
         <v>100558660.2178771</v>
       </c>
       <c r="N22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="23" spans="10:14" x14ac:dyDescent="0.2">
@@ -7542,7 +7543,7 @@
         <v>0.5</v>
       </c>
       <c r="N23" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="24" spans="10:14" x14ac:dyDescent="0.2">
@@ -7550,13 +7551,13 @@
         <v>6.5</v>
       </c>
       <c r="K24" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="M24">
         <v>11</v>
       </c>
       <c r="N24" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="29" spans="10:14" x14ac:dyDescent="0.2">
@@ -7564,7 +7565,7 @@
         <v>7</v>
       </c>
       <c r="K29" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="30" spans="10:14" x14ac:dyDescent="0.2">
@@ -7572,7 +7573,7 @@
         <v>21</v>
       </c>
       <c r="K30" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="31" spans="10:14" x14ac:dyDescent="0.2">
@@ -7580,7 +7581,7 @@
         <v>8.5</v>
       </c>
       <c r="K31" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="32" spans="10:14" x14ac:dyDescent="0.2">
@@ -7588,7 +7589,7 @@
         <v>24</v>
       </c>
       <c r="K32" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="33" spans="10:11" x14ac:dyDescent="0.2">
@@ -7596,7 +7597,7 @@
         <v>36</v>
       </c>
       <c r="K33" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="34" spans="10:11" x14ac:dyDescent="0.2">
@@ -7604,7 +7605,7 @@
         <v>6</v>
       </c>
       <c r="K34" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="35" spans="10:11" x14ac:dyDescent="0.2">
@@ -7612,7 +7613,7 @@
         <v>42</v>
       </c>
       <c r="K35" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="36" spans="10:11" x14ac:dyDescent="0.2">
@@ -7620,7 +7621,7 @@
         <v>67</v>
       </c>
       <c r="K36" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="37" spans="10:11" x14ac:dyDescent="0.2">
@@ -7628,7 +7629,7 @@
         <v>6</v>
       </c>
       <c r="K37" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="38" spans="10:11" x14ac:dyDescent="0.2">
@@ -7636,7 +7637,7 @@
         <v>56</v>
       </c>
       <c r="K38" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="39" spans="10:11" x14ac:dyDescent="0.2">
@@ -7644,7 +7645,7 @@
         <v>22</v>
       </c>
       <c r="K39" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="40" spans="10:11" x14ac:dyDescent="0.2">
@@ -7652,7 +7653,7 @@
         <v>13</v>
       </c>
       <c r="K40" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="41" spans="10:11" x14ac:dyDescent="0.2">
@@ -7660,7 +7661,7 @@
         <v>5</v>
       </c>
       <c r="K41" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="42" spans="10:11" x14ac:dyDescent="0.2">
@@ -7668,7 +7669,7 @@
         <v>5</v>
       </c>
       <c r="K42" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="43" spans="10:11" x14ac:dyDescent="0.2">
@@ -7676,7 +7677,7 @@
         <v>11</v>
       </c>
       <c r="K43" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="44" spans="10:11" x14ac:dyDescent="0.2">
@@ -7684,7 +7685,7 @@
         <v>9</v>
       </c>
       <c r="K44" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="45" spans="10:11" x14ac:dyDescent="0.2">
@@ -7692,7 +7693,7 @@
         <v>29</v>
       </c>
       <c r="K45" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="46" spans="10:11" x14ac:dyDescent="0.2">
@@ -7700,7 +7701,7 @@
         <v>4.5</v>
       </c>
       <c r="K46" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="47" spans="10:11" x14ac:dyDescent="0.2">
@@ -7708,7 +7709,7 @@
         <v>4</v>
       </c>
       <c r="K47" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="48" spans="10:11" x14ac:dyDescent="0.2">
@@ -7716,7 +7717,7 @@
         <v>4</v>
       </c>
       <c r="K48" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="49" spans="10:11" x14ac:dyDescent="0.2">
@@ -7724,7 +7725,7 @@
         <v>26</v>
       </c>
       <c r="K49" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="62" spans="10:11" x14ac:dyDescent="0.2">
@@ -7732,7 +7733,7 @@
         <v>57.5</v>
       </c>
       <c r="K62" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="63" spans="10:11" x14ac:dyDescent="0.2">
@@ -7740,7 +7741,7 @@
         <v>44</v>
       </c>
       <c r="K63" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="64" spans="10:11" x14ac:dyDescent="0.2">
@@ -7748,7 +7749,7 @@
         <v>182</v>
       </c>
       <c r="K64" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="65" spans="10:11" x14ac:dyDescent="0.2">
@@ -7756,7 +7757,7 @@
         <v>27</v>
       </c>
       <c r="K65" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="66" spans="10:11" x14ac:dyDescent="0.2">
@@ -7764,7 +7765,7 @@
         <v>167</v>
       </c>
       <c r="K66" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="67" spans="10:11" x14ac:dyDescent="0.2">
@@ -7772,7 +7773,7 @@
         <v>47</v>
       </c>
       <c r="K67" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="68" spans="10:11" x14ac:dyDescent="0.2">
@@ -7780,7 +7781,7 @@
         <v>16.875</v>
       </c>
       <c r="K68" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="69" spans="10:11" x14ac:dyDescent="0.2">
@@ -7788,7 +7789,7 @@
         <v>865</v>
       </c>
       <c r="K69" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="70" spans="10:11" x14ac:dyDescent="0.2">
@@ -7796,7 +7797,7 @@
         <v>0.5</v>
       </c>
       <c r="K70" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="71" spans="10:11" x14ac:dyDescent="0.2">
@@ -7804,7 +7805,7 @@
         <v>6</v>
       </c>
       <c r="K71" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="72" spans="10:11" x14ac:dyDescent="0.2">
@@ -7812,7 +7813,7 @@
         <v>18.5</v>
       </c>
       <c r="K72" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="73" spans="10:11" x14ac:dyDescent="0.2">
@@ -7820,7 +7821,7 @@
         <v>4</v>
       </c>
       <c r="K73" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="74" spans="10:11" x14ac:dyDescent="0.2">
@@ -7828,7 +7829,7 @@
         <v>40.25</v>
       </c>
       <c r="K74" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="75" spans="10:11" x14ac:dyDescent="0.2">
@@ -7836,7 +7837,7 @@
         <v>107</v>
       </c>
       <c r="K75" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="76" spans="10:11" x14ac:dyDescent="0.2">
@@ -7844,7 +7845,7 @@
         <v>19</v>
       </c>
       <c r="K76" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="77" spans="10:11" x14ac:dyDescent="0.2">
@@ -7852,7 +7853,7 @@
         <v>181</v>
       </c>
       <c r="K77" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="81" spans="10:11" x14ac:dyDescent="0.2">
@@ -7860,7 +7861,7 @@
         <v>7.5</v>
       </c>
       <c r="K81" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="82" spans="10:11" x14ac:dyDescent="0.2">
@@ -7868,7 +7869,7 @@
         <v>10</v>
       </c>
       <c r="K82" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="83" spans="10:11" x14ac:dyDescent="0.2">
@@ -7876,7 +7877,7 @@
         <v>48</v>
       </c>
       <c r="K83" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="84" spans="10:11" x14ac:dyDescent="0.2">
@@ -7884,7 +7885,7 @@
         <v>81</v>
       </c>
       <c r="K84" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="85" spans="10:11" x14ac:dyDescent="0.2">
@@ -7892,7 +7893,7 @@
         <v>125</v>
       </c>
       <c r="K85" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="86" spans="10:11" x14ac:dyDescent="0.2">
@@ -7900,7 +7901,7 @@
         <v>297.5</v>
       </c>
       <c r="K86" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
   </sheetData>
@@ -7916,6 +7917,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
